--- a/youtube/기초편/excel/Sample.xlsx
+++ b/youtube/기초편/excel/Sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV_Source\RPA\11_UiPath_기초편_Excel Read Write\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Jun\learning\learning-uipath\youtube\기초편\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -654,7 +654,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="A1:F6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/youtube/기초편/excel/Sample.xlsx
+++ b/youtube/기초편/excel/Sample.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
   <si>
     <t>시간표</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -114,6 +114,14 @@
   </si>
   <si>
     <t>시간표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -651,14 +659,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G7" sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/youtube/기초편/excel/Sample.xlsx
+++ b/youtube/기초편/excel/Sample.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
   <si>
     <t>시간표</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,13 +123,16 @@
   <si>
     <t>금</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간표</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -148,16 +151,35 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="메이플스토리"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -165,15 +187,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,14 +599,14 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -659,92 +699,102 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="A1:G7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
